--- a/MP2/pred_analysis.xlsx
+++ b/MP2/pred_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Git\ECSE-551\MP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F6737-C8BB-4B51-AF61-D178CDE1FA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8968137-A848-481D-AFE5-9F20AEE0D4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E5E7E969-B9E6-4054-8BFB-1EC51E31B2CA}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E5E7E969-B9E6-4054-8BFB-1EC51E31B2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="inverse_t" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1132">
   <si>
     <t>id</t>
   </si>
@@ -6173,6 +6173,9 @@
   </si>
   <si>
     <t>my_pred_81_231116_1722_ok</t>
+  </si>
+  <si>
+    <t>New pred</t>
   </si>
 </sst>
 </file>
@@ -6228,7 +6231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6246,22 +6249,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -6284,46 +6278,11 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6351,41 +6310,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6428,14 +6352,16 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="3" xr16:uid="{121418FA-297A-463B-9BC1-B28E9DEAF3A5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10" unboundColumnsRight="5">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="13" unboundColumnsRight="7">
+    <queryTableFields count="8">
       <queryTableField id="2" name="body" tableColumnId="2"/>
       <queryTableField id="6" dataBound="0" tableColumnId="5"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
       <queryTableField id="7" dataBound="0" tableColumnId="6"/>
       <queryTableField id="4" dataBound="0" tableColumnId="1"/>
       <queryTableField id="8" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="id"/>
@@ -6449,28 +6375,32 @@
   <autoFilter ref="A1:E280" xr:uid="{9F6AD016-E148-43A5-883C-2CD69F59CBBA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3BE59769-CDEE-434D-A935-C72173B27062}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{4CA488D5-3652-4D40-A1C9-813B7A35EFCD}" uniqueName="2" name="L - C - NLe - 2G - F2000" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{EBD5C59C-57DC-4C21-AAE7-F904AE8D7424}" uniqueName="3" name="L - C - NLe - 2G - F2000 - No Acc" queryTableFieldId="3" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{2453E79C-ACD2-4C14-842C-C2E99FA65965}" uniqueName="4" name="L - C - NLe - 2G - F2000 - Punc w space" queryTableFieldId="4" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{B2E758E0-0259-4917-AC4E-A6C7667D7612}" uniqueName="5" name="L - C - Le - 2G - F2000" queryTableFieldId="5" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{4CA488D5-3652-4D40-A1C9-813B7A35EFCD}" uniqueName="2" name="L - C - NLe - 2G - F2000" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{EBD5C59C-57DC-4C21-AAE7-F904AE8D7424}" uniqueName="3" name="L - C - NLe - 2G - F2000 - No Acc" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{2453E79C-ACD2-4C14-842C-C2E99FA65965}" uniqueName="4" name="L - C - NLe - 2G - F2000 - Punc w space" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{B2E758E0-0259-4917-AC4E-A6C7667D7612}" uniqueName="5" name="L - C - Le - 2G - F2000" queryTableFieldId="5" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{01C86FAF-51AE-4DD4-9112-4E350B31DB21}" name="test" displayName="test" ref="B1:G280" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B1:G280" xr:uid="{01C86FAF-51AE-4DD4-9112-4E350B31DB21}"/>
-  <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{797119C1-D816-4588-A732-A07A4833BA8B}" uniqueName="2" name="Post" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{C3E937E8-22FD-4060-8783-C256BD0C0A18}" uniqueName="5" name="CLASS" queryTableFieldId="6" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{98342957-CB9B-495A-836B-96FE5E2D8F9F}" uniqueName="3" name="Pred 1" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{26BCF4FE-DE81-4156-A7C3-72B0D097FC26}" uniqueName="6" name="Pred 1_ok" queryTableFieldId="7" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{01C86FAF-51AE-4DD4-9112-4E350B31DB21}" name="test" displayName="test" ref="B1:I280" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B1:I280" xr:uid="{01C86FAF-51AE-4DD4-9112-4E350B31DB21}"/>
+  <tableColumns count="8">
+    <tableColumn id="2" xr3:uid="{797119C1-D816-4588-A732-A07A4833BA8B}" uniqueName="2" name="Post" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C3E937E8-22FD-4060-8783-C256BD0C0A18}" uniqueName="5" name="CLASS" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{98342957-CB9B-495A-836B-96FE5E2D8F9F}" uniqueName="3" name="Pred 1" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{26BCF4FE-DE81-4156-A7C3-72B0D097FC26}" uniqueName="6" name="Pred 1_ok" queryTableFieldId="7" dataDxfId="7">
       <calculatedColumnFormula>IF(test[[#This Row],[Pred 1]]=test[[#This Row],[CLASS]], "OUI", "NON")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{856F3A5E-FD50-4234-9B3C-B0EE3C87BCD8}" uniqueName="1" name="my_pred_81_231116_1722" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{EB712DC8-9120-42E6-A22C-7DD736922BEE}" uniqueName="7" name="my_pred_81_231116_1722_ok" queryTableFieldId="8" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{856F3A5E-FD50-4234-9B3C-B0EE3C87BCD8}" uniqueName="1" name="my_pred_81_231116_1722" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{EB712DC8-9120-42E6-A22C-7DD736922BEE}" uniqueName="7" name="my_pred_81_231116_1722_ok" queryTableFieldId="8" dataDxfId="5">
       <calculatedColumnFormula>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CA0A949B-FE5E-4D40-8B6F-AD9F98CEE766}" uniqueName="4" name="Toronto" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D2F25013-8598-457A-BA5F-782AD1D7F254}" uniqueName="8" name="Column1" queryTableFieldId="11" dataDxfId="4">
+      <calculatedColumnFormula>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11556,26 +11486,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C5AFDB-CE63-4B33-9148-3984B1E1A496}">
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="150" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="150" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11597,9 +11529,15 @@
       <c r="G1" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11623,9 +11561,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11649,9 +11594,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11675,9 +11627,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11701,9 +11660,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11727,9 +11693,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11753,19 +11726,26 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="str">
@@ -11779,10 +11759,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11806,9 +11792,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11832,9 +11825,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11858,9 +11858,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -11884,9 +11891,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -11910,9 +11924,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -11936,9 +11957,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -11962,9 +11990,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -11988,9 +12023,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12014,9 +12056,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12040,9 +12089,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12066,9 +12122,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12092,9 +12155,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12118,9 +12188,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12144,9 +12221,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -12170,10 +12254,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12197,9 +12287,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12223,9 +12320,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12249,9 +12353,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12275,9 +12386,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12301,9 +12419,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12327,9 +12452,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12353,9 +12485,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -12379,9 +12518,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12405,9 +12551,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12431,9 +12584,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12457,9 +12617,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12483,9 +12650,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12509,9 +12683,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12535,9 +12716,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12561,9 +12749,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -12587,10 +12782,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H39"/>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12614,9 +12815,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12640,9 +12848,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:9" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12666,9 +12881,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="1:9" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -12692,10 +12914,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H43"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12719,9 +12947,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12745,9 +12980,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12771,9 +13013,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -12797,9 +13046,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -12823,9 +13079,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -12849,9 +13112,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -12875,9 +13145,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -12901,9 +13178,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -12927,9 +13211,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -12953,9 +13244,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -12979,9 +13277,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13005,9 +13310,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13031,9 +13343,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13057,9 +13376,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13083,9 +13409,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13109,9 +13442,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13135,9 +13475,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13161,9 +13508,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13187,9 +13541,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -13213,9 +13574,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -13239,9 +13607,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -13265,9 +13640,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13291,9 +13673,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -13317,9 +13706,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13343,9 +13739,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -13369,9 +13772,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -13395,9 +13805,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -13421,9 +13838,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -13447,9 +13871,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -13473,9 +13904,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -13499,9 +13937,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -13525,9 +13970,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -13551,9 +14003,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -13577,9 +14036,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -13603,9 +14069,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -13629,9 +14102,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -13655,9 +14135,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -13681,9 +14168,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -13707,9 +14201,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -13733,9 +14234,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -13759,9 +14267,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -13785,9 +14300,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -13811,9 +14333,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -13837,9 +14366,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -13863,9 +14399,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -13889,9 +14432,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>2</v>
+      </c>
+      <c r="I89" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -13915,9 +14465,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>2</v>
+      </c>
+      <c r="I90" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13941,9 +14498,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13967,9 +14531,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13993,9 +14564,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -14019,9 +14597,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>2</v>
+      </c>
+      <c r="I94" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -14045,9 +14630,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -14071,9 +14663,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -14097,9 +14696,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -14123,9 +14729,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>2</v>
+      </c>
+      <c r="I98" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -14149,9 +14762,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>2</v>
+      </c>
+      <c r="I99" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -14175,9 +14795,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -14201,9 +14828,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -14227,9 +14861,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>2</v>
+      </c>
+      <c r="I102" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -14253,9 +14894,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -14279,9 +14927,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -14305,9 +14960,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H105"/>
-    </row>
-    <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -14331,9 +14993,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H106"/>
-    </row>
-    <row r="107" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -14357,9 +15026,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -14383,9 +15059,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H108"/>
-    </row>
-    <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -14409,9 +15092,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H109"/>
-    </row>
-    <row r="110" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -14435,9 +15125,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H110"/>
-    </row>
-    <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -14461,9 +15158,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H111"/>
-    </row>
-    <row r="112" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -14487,9 +15191,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H112"/>
-    </row>
-    <row r="113" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -14513,9 +15224,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -14539,9 +15257,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H114"/>
-    </row>
-    <row r="115" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -14565,9 +15290,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -14591,9 +15323,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -14617,9 +15356,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H117"/>
-    </row>
-    <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -14643,9 +15389,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H118"/>
-    </row>
-    <row r="119" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -14669,9 +15422,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H119"/>
-    </row>
-    <row r="120" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -14695,9 +15455,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H120"/>
-    </row>
-    <row r="121" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H120" t="s">
+        <v>2</v>
+      </c>
+      <c r="I120" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -14721,9 +15488,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I121" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -14747,10 +15521,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H122"/>
-      <c r="I122"/>
-    </row>
-    <row r="123" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>2</v>
+      </c>
+      <c r="I122" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -14774,9 +15554,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H123"/>
-    </row>
-    <row r="124" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="H123" t="s">
+        <v>4</v>
+      </c>
+      <c r="I123" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -14800,9 +15587,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H124"/>
-    </row>
-    <row r="125" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>2</v>
+      </c>
+      <c r="I124" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -14826,9 +15620,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H125"/>
-    </row>
-    <row r="126" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="H125" t="s">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -14852,9 +15653,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H126"/>
-    </row>
-    <row r="127" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>2</v>
+      </c>
+      <c r="I126" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J126"/>
+    </row>
+    <row r="127" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -14878,9 +15686,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H127"/>
-    </row>
-    <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J127"/>
+    </row>
+    <row r="128" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -14904,9 +15719,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H128"/>
-    </row>
-    <row r="129" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -14930,9 +15752,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H129"/>
-    </row>
-    <row r="130" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -14956,9 +15785,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H130"/>
-    </row>
-    <row r="131" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>2</v>
+      </c>
+      <c r="I130" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J130"/>
+    </row>
+    <row r="131" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -14982,9 +15818,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H131"/>
-    </row>
-    <row r="132" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>2</v>
+      </c>
+      <c r="I131" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J131"/>
+    </row>
+    <row r="132" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -15008,9 +15851,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H132"/>
-    </row>
-    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>1</v>
+      </c>
+      <c r="I132" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J132"/>
+    </row>
+    <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -15034,9 +15884,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H133"/>
-    </row>
-    <row r="134" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>2</v>
+      </c>
+      <c r="I133" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J133"/>
+    </row>
+    <row r="134" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -15060,9 +15917,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H134"/>
-    </row>
-    <row r="135" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J134"/>
+    </row>
+    <row r="135" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -15086,9 +15950,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H135"/>
-    </row>
-    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>1</v>
+      </c>
+      <c r="I135" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J135"/>
+    </row>
+    <row r="136" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -15112,9 +15983,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H136"/>
-    </row>
-    <row r="137" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>2</v>
+      </c>
+      <c r="I136" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J136"/>
+    </row>
+    <row r="137" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -15138,9 +16016,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H137"/>
-    </row>
-    <row r="138" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>2</v>
+      </c>
+      <c r="I137" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J137"/>
+    </row>
+    <row r="138" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -15164,9 +16049,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H138"/>
-    </row>
-    <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J138"/>
+    </row>
+    <row r="139" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -15190,9 +16082,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H139"/>
-    </row>
-    <row r="140" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J139"/>
+    </row>
+    <row r="140" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -15216,9 +16115,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H140"/>
-    </row>
-    <row r="141" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>2</v>
+      </c>
+      <c r="I140" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J140"/>
+    </row>
+    <row r="141" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -15242,9 +16148,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H141"/>
-    </row>
-    <row r="142" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>4</v>
+      </c>
+      <c r="I141" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J141"/>
+    </row>
+    <row r="142" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -15268,9 +16181,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H142"/>
-    </row>
-    <row r="143" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>4</v>
+      </c>
+      <c r="I142" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J142"/>
+    </row>
+    <row r="143" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -15294,9 +16214,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H143"/>
-    </row>
-    <row r="144" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>4</v>
+      </c>
+      <c r="I143" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J143"/>
+    </row>
+    <row r="144" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -15320,9 +16247,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H144"/>
-    </row>
-    <row r="145" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J144"/>
+    </row>
+    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -15346,9 +16280,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H145"/>
-    </row>
-    <row r="146" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H145" t="s">
+        <v>4</v>
+      </c>
+      <c r="I145" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J145"/>
+    </row>
+    <row r="146" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -15372,9 +16313,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H146"/>
-    </row>
-    <row r="147" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>4</v>
+      </c>
+      <c r="I146" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J146"/>
+    </row>
+    <row r="147" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -15398,9 +16346,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H147"/>
-    </row>
-    <row r="148" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>4</v>
+      </c>
+      <c r="I147" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J147"/>
+    </row>
+    <row r="148" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -15424,9 +16379,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H148"/>
-    </row>
-    <row r="149" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="H148" t="s">
+        <v>4</v>
+      </c>
+      <c r="I148" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J148"/>
+    </row>
+    <row r="149" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -15450,9 +16412,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H149"/>
-    </row>
-    <row r="150" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>2</v>
+      </c>
+      <c r="I149" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J149"/>
+    </row>
+    <row r="150" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -15476,9 +16445,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H150"/>
-    </row>
-    <row r="151" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>4</v>
+      </c>
+      <c r="I150" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J150"/>
+    </row>
+    <row r="151" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -15502,9 +16478,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H151"/>
-    </row>
-    <row r="152" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>4</v>
+      </c>
+      <c r="I151" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J151"/>
+    </row>
+    <row r="152" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -15528,9 +16511,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H152"/>
-    </row>
-    <row r="153" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>4</v>
+      </c>
+      <c r="I152" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J152"/>
+    </row>
+    <row r="153" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -15554,9 +16544,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H153"/>
-    </row>
-    <row r="154" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>4</v>
+      </c>
+      <c r="I153" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J153"/>
+    </row>
+    <row r="154" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -15580,9 +16577,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H154"/>
-    </row>
-    <row r="155" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>4</v>
+      </c>
+      <c r="I154" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J154"/>
+    </row>
+    <row r="155" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -15606,9 +16610,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H155"/>
-    </row>
-    <row r="156" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>4</v>
+      </c>
+      <c r="I155" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J155"/>
+    </row>
+    <row r="156" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -15632,9 +16643,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H156"/>
-    </row>
-    <row r="157" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>4</v>
+      </c>
+      <c r="I156" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J156"/>
+    </row>
+    <row r="157" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>155</v>
       </c>
@@ -15658,10 +16676,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H157"/>
-      <c r="I157"/>
-    </row>
-    <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>4</v>
+      </c>
+      <c r="I157" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J157"/>
+    </row>
+    <row r="158" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -15685,9 +16709,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H158"/>
-    </row>
-    <row r="159" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J158"/>
+    </row>
+    <row r="159" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -15711,9 +16742,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H159"/>
-    </row>
-    <row r="160" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J159"/>
+    </row>
+    <row r="160" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -15737,9 +16775,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H160"/>
-    </row>
-    <row r="161" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H160" t="s">
+        <v>1</v>
+      </c>
+      <c r="I160" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J160"/>
+    </row>
+    <row r="161" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>159</v>
       </c>
@@ -15763,10 +16808,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H161"/>
-      <c r="I161"/>
-    </row>
-    <row r="162" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>4</v>
+      </c>
+      <c r="I161" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J161"/>
+    </row>
+    <row r="162" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -15790,9 +16841,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H162"/>
-    </row>
-    <row r="163" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>4</v>
+      </c>
+      <c r="I162" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J162"/>
+    </row>
+    <row r="163" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -15816,9 +16874,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H163"/>
-    </row>
-    <row r="164" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="H163" t="s">
+        <v>4</v>
+      </c>
+      <c r="I163" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J163"/>
+    </row>
+    <row r="164" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -15842,9 +16907,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H164"/>
-    </row>
-    <row r="165" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H164" t="s">
+        <v>4</v>
+      </c>
+      <c r="I164" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J164"/>
+    </row>
+    <row r="165" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -15868,9 +16940,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H165"/>
-    </row>
-    <row r="166" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>4</v>
+      </c>
+      <c r="I165" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J165"/>
+    </row>
+    <row r="166" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -15894,9 +16973,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H166"/>
-    </row>
-    <row r="167" spans="1:9" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="H166" t="s">
+        <v>1</v>
+      </c>
+      <c r="I166" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J166"/>
+    </row>
+    <row r="167" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>165</v>
       </c>
@@ -15920,10 +17006,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H167"/>
-      <c r="I167"/>
-    </row>
-    <row r="168" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H167" t="s">
+        <v>1</v>
+      </c>
+      <c r="I167" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J167"/>
+    </row>
+    <row r="168" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -15947,9 +17039,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H168"/>
-    </row>
-    <row r="169" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H168" t="s">
+        <v>4</v>
+      </c>
+      <c r="I168" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J168"/>
+    </row>
+    <row r="169" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -15973,9 +17072,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H169"/>
-    </row>
-    <row r="170" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H169" t="s">
+        <v>2</v>
+      </c>
+      <c r="I169" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J169"/>
+    </row>
+    <row r="170" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>168</v>
       </c>
@@ -15999,10 +17105,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H170"/>
-      <c r="I170"/>
-    </row>
-    <row r="171" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H170" t="s">
+        <v>4</v>
+      </c>
+      <c r="I170" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J170"/>
+    </row>
+    <row r="171" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -16026,9 +17138,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H171"/>
-    </row>
-    <row r="172" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H171" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J171"/>
+    </row>
+    <row r="172" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -16052,9 +17171,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H172"/>
-    </row>
-    <row r="173" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H172" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J172"/>
+    </row>
+    <row r="173" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -16078,9 +17204,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H173"/>
-    </row>
-    <row r="174" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H173" t="s">
+        <v>4</v>
+      </c>
+      <c r="I173" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J173"/>
+    </row>
+    <row r="174" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -16104,9 +17237,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H174"/>
-    </row>
-    <row r="175" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H174" t="s">
+        <v>4</v>
+      </c>
+      <c r="I174" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J174"/>
+    </row>
+    <row r="175" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -16130,9 +17270,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H175"/>
-    </row>
-    <row r="176" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H175" t="s">
+        <v>4</v>
+      </c>
+      <c r="I175" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J175"/>
+    </row>
+    <row r="176" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -16156,9 +17303,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H176"/>
-    </row>
-    <row r="177" spans="1:9" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H176" t="s">
+        <v>4</v>
+      </c>
+      <c r="I176" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J176"/>
+    </row>
+    <row r="177" spans="1:10" s="6" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>175</v>
       </c>
@@ -16182,10 +17336,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H177"/>
-      <c r="I177"/>
-    </row>
-    <row r="178" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H177" t="s">
+        <v>4</v>
+      </c>
+      <c r="I177" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J177"/>
+    </row>
+    <row r="178" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -16209,9 +17369,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H178"/>
-    </row>
-    <row r="179" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H178" t="s">
+        <v>1</v>
+      </c>
+      <c r="I178" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J178"/>
+    </row>
+    <row r="179" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -16235,9 +17402,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H179"/>
-    </row>
-    <row r="180" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H179" t="s">
+        <v>4</v>
+      </c>
+      <c r="I179" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J179"/>
+    </row>
+    <row r="180" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -16261,9 +17435,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H180"/>
-    </row>
-    <row r="181" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H180" t="s">
+        <v>2</v>
+      </c>
+      <c r="I180" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J180"/>
+    </row>
+    <row r="181" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -16287,9 +17468,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H181"/>
-    </row>
-    <row r="182" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H181" t="s">
+        <v>4</v>
+      </c>
+      <c r="I181" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J181"/>
+    </row>
+    <row r="182" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -16313,9 +17501,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H182"/>
-    </row>
-    <row r="183" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H182" t="s">
+        <v>4</v>
+      </c>
+      <c r="I182" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J182"/>
+    </row>
+    <row r="183" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -16339,9 +17534,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H183"/>
-    </row>
-    <row r="184" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H183" t="s">
+        <v>4</v>
+      </c>
+      <c r="I183" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J183"/>
+    </row>
+    <row r="184" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -16365,9 +17567,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H184"/>
-    </row>
-    <row r="185" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="H184" t="s">
+        <v>4</v>
+      </c>
+      <c r="I184" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J184"/>
+    </row>
+    <row r="185" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -16391,9 +17600,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H185"/>
-    </row>
-    <row r="186" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H185" t="s">
+        <v>4</v>
+      </c>
+      <c r="I185" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J185"/>
+    </row>
+    <row r="186" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -16417,9 +17633,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H186"/>
-    </row>
-    <row r="187" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H186" t="s">
+        <v>4</v>
+      </c>
+      <c r="I186" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J186"/>
+    </row>
+    <row r="187" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -16443,9 +17666,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H187"/>
-    </row>
-    <row r="188" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H187" t="s">
+        <v>4</v>
+      </c>
+      <c r="I187" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J187"/>
+    </row>
+    <row r="188" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -16469,9 +17699,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H188"/>
-    </row>
-    <row r="189" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H188" t="s">
+        <v>4</v>
+      </c>
+      <c r="I188" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J188"/>
+    </row>
+    <row r="189" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -16495,9 +17732,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H189"/>
-    </row>
-    <row r="190" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>4</v>
+      </c>
+      <c r="I189" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J189"/>
+    </row>
+    <row r="190" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -16521,9 +17765,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H190"/>
-    </row>
-    <row r="191" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H190" t="s">
+        <v>4</v>
+      </c>
+      <c r="I190" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J190"/>
+    </row>
+    <row r="191" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -16547,9 +17798,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H191"/>
-    </row>
-    <row r="192" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H191" t="s">
+        <v>4</v>
+      </c>
+      <c r="I191" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J191"/>
+    </row>
+    <row r="192" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -16573,9 +17831,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H192"/>
-    </row>
-    <row r="193" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H192" t="s">
+        <v>4</v>
+      </c>
+      <c r="I192" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J192"/>
+    </row>
+    <row r="193" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -16599,9 +17864,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H193"/>
-    </row>
-    <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H193" t="s">
+        <v>4</v>
+      </c>
+      <c r="I193" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J193"/>
+    </row>
+    <row r="194" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -16625,9 +17897,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H194"/>
-    </row>
-    <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H194" t="s">
+        <v>2</v>
+      </c>
+      <c r="I194" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J194"/>
+    </row>
+    <row r="195" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -16651,9 +17930,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H195"/>
-    </row>
-    <row r="196" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H195" t="s">
+        <v>4</v>
+      </c>
+      <c r="I195" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J195"/>
+    </row>
+    <row r="196" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -16677,9 +17963,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H196"/>
-    </row>
-    <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H196" t="s">
+        <v>4</v>
+      </c>
+      <c r="I196" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J196"/>
+    </row>
+    <row r="197" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -16703,9 +17996,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H197"/>
-    </row>
-    <row r="198" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H197" t="s">
+        <v>4</v>
+      </c>
+      <c r="I197" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J197"/>
+    </row>
+    <row r="198" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -16729,9 +18029,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H198"/>
-    </row>
-    <row r="199" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="H198" t="s">
+        <v>2</v>
+      </c>
+      <c r="I198" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J198"/>
+    </row>
+    <row r="199" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -16755,9 +18062,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H199"/>
-    </row>
-    <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H199" t="s">
+        <v>4</v>
+      </c>
+      <c r="I199" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J199"/>
+    </row>
+    <row r="200" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -16781,9 +18095,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H200"/>
-    </row>
-    <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H200" t="s">
+        <v>4</v>
+      </c>
+      <c r="I200" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J200"/>
+    </row>
+    <row r="201" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -16807,9 +18128,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H201"/>
-    </row>
-    <row r="202" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="H201" t="s">
+        <v>4</v>
+      </c>
+      <c r="I201" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J201"/>
+    </row>
+    <row r="202" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -16833,9 +18161,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H202"/>
-    </row>
-    <row r="203" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H202" t="s">
+        <v>4</v>
+      </c>
+      <c r="I202" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J202"/>
+    </row>
+    <row r="203" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -16859,9 +18194,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H203"/>
-    </row>
-    <row r="204" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H203" t="s">
+        <v>4</v>
+      </c>
+      <c r="I203" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J203"/>
+    </row>
+    <row r="204" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -16885,9 +18227,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H204"/>
-    </row>
-    <row r="205" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H204" t="s">
+        <v>4</v>
+      </c>
+      <c r="I204" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J204"/>
+    </row>
+    <row r="205" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -16911,9 +18260,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H205"/>
-    </row>
-    <row r="206" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H205" t="s">
+        <v>4</v>
+      </c>
+      <c r="I205" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J205"/>
+    </row>
+    <row r="206" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -16937,9 +18293,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H206"/>
-    </row>
-    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H206" t="s">
+        <v>4</v>
+      </c>
+      <c r="I206" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J206"/>
+    </row>
+    <row r="207" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -16963,9 +18326,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H207"/>
-    </row>
-    <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H207" t="s">
+        <v>4</v>
+      </c>
+      <c r="I207" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J207"/>
+    </row>
+    <row r="208" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -16989,9 +18359,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H208"/>
-    </row>
-    <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H208" t="s">
+        <v>4</v>
+      </c>
+      <c r="I208" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J208"/>
+    </row>
+    <row r="209" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -17015,9 +18392,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H209"/>
-    </row>
-    <row r="210" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H209" t="s">
+        <v>4</v>
+      </c>
+      <c r="I209" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J209"/>
+    </row>
+    <row r="210" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -17041,9 +18425,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H210"/>
-    </row>
-    <row r="211" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H210" t="s">
+        <v>4</v>
+      </c>
+      <c r="I210" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J210"/>
+    </row>
+    <row r="211" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -17067,9 +18458,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H211"/>
-    </row>
-    <row r="212" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="H211" t="s">
+        <v>4</v>
+      </c>
+      <c r="I211" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J211"/>
+    </row>
+    <row r="212" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -17093,9 +18491,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H212"/>
-    </row>
-    <row r="213" spans="1:9" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H212" t="s">
+        <v>4</v>
+      </c>
+      <c r="I212" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J212"/>
+    </row>
+    <row r="213" spans="1:10" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>211</v>
       </c>
@@ -17119,10 +18524,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H213"/>
-      <c r="I213"/>
-    </row>
-    <row r="214" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H213" t="s">
+        <v>3</v>
+      </c>
+      <c r="I213" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J213"/>
+    </row>
+    <row r="214" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -17146,9 +18557,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H214"/>
-    </row>
-    <row r="215" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H214" t="s">
+        <v>3</v>
+      </c>
+      <c r="I214" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J214"/>
+    </row>
+    <row r="215" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -17172,9 +18590,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H215"/>
-    </row>
-    <row r="216" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H215" t="s">
+        <v>3</v>
+      </c>
+      <c r="I215" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J215"/>
+    </row>
+    <row r="216" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -17198,9 +18623,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H216"/>
-    </row>
-    <row r="217" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H216" t="s">
+        <v>4</v>
+      </c>
+      <c r="I216" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J216"/>
+    </row>
+    <row r="217" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -17224,9 +18656,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H217"/>
-    </row>
-    <row r="218" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H217" t="s">
+        <v>4</v>
+      </c>
+      <c r="I217" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J217"/>
+    </row>
+    <row r="218" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -17250,9 +18689,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H218"/>
-    </row>
-    <row r="219" spans="1:9" s="6" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="H218" t="s">
+        <v>3</v>
+      </c>
+      <c r="I218" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J218"/>
+    </row>
+    <row r="219" spans="1:10" s="6" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>217</v>
       </c>
@@ -17276,10 +18722,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H219"/>
-      <c r="I219"/>
-    </row>
-    <row r="220" spans="1:9" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H219" t="s">
+        <v>1</v>
+      </c>
+      <c r="I219" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J219"/>
+    </row>
+    <row r="220" spans="1:10" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>218</v>
       </c>
@@ -17303,10 +18755,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H220"/>
-      <c r="I220"/>
-    </row>
-    <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H220" t="s">
+        <v>3</v>
+      </c>
+      <c r="I220" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J220"/>
+    </row>
+    <row r="221" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -17330,9 +18788,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H221"/>
-    </row>
-    <row r="222" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H221" t="s">
+        <v>4</v>
+      </c>
+      <c r="I221" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J221"/>
+    </row>
+    <row r="222" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -17356,9 +18821,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H222"/>
-    </row>
-    <row r="223" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H222" t="s">
+        <v>1</v>
+      </c>
+      <c r="I222" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J222"/>
+    </row>
+    <row r="223" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -17382,9 +18854,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H223"/>
-    </row>
-    <row r="224" spans="1:9" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="H223" t="s">
+        <v>4</v>
+      </c>
+      <c r="I223" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J223"/>
+    </row>
+    <row r="224" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>222</v>
       </c>
@@ -17408,10 +18887,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H224"/>
-      <c r="I224"/>
-    </row>
-    <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H224" t="s">
+        <v>4</v>
+      </c>
+      <c r="I224" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J224"/>
+    </row>
+    <row r="225" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -17435,9 +18920,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H225"/>
-    </row>
-    <row r="226" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H225" t="s">
+        <v>1</v>
+      </c>
+      <c r="I225" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J225"/>
+    </row>
+    <row r="226" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>224</v>
       </c>
@@ -17461,10 +18953,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H226"/>
-      <c r="I226"/>
-    </row>
-    <row r="227" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H226" t="s">
+        <v>3</v>
+      </c>
+      <c r="I226" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J226"/>
+    </row>
+    <row r="227" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -17488,9 +18986,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H227"/>
-    </row>
-    <row r="228" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H227" t="s">
+        <v>1</v>
+      </c>
+      <c r="I227" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J227"/>
+    </row>
+    <row r="228" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -17514,9 +19019,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H228"/>
-    </row>
-    <row r="229" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H228" t="s">
+        <v>1</v>
+      </c>
+      <c r="I228" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J228"/>
+    </row>
+    <row r="229" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -17540,9 +19052,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H229"/>
-    </row>
-    <row r="230" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H229" t="s">
+        <v>2</v>
+      </c>
+      <c r="I229" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J229"/>
+    </row>
+    <row r="230" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -17566,9 +19085,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H230"/>
-    </row>
-    <row r="231" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H230" t="s">
+        <v>2</v>
+      </c>
+      <c r="I230" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J230"/>
+    </row>
+    <row r="231" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -17592,9 +19118,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H231"/>
-    </row>
-    <row r="232" spans="1:9" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="H231" t="s">
+        <v>1</v>
+      </c>
+      <c r="I231" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J231"/>
+    </row>
+    <row r="232" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -17618,9 +19151,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H232"/>
-    </row>
-    <row r="233" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H232" t="s">
+        <v>4</v>
+      </c>
+      <c r="I232" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J232"/>
+    </row>
+    <row r="233" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -17644,9 +19184,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H233"/>
-    </row>
-    <row r="234" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H233" t="s">
+        <v>3</v>
+      </c>
+      <c r="I233" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J233"/>
+    </row>
+    <row r="234" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -17670,9 +19217,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H234"/>
-    </row>
-    <row r="235" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H234" t="s">
+        <v>2</v>
+      </c>
+      <c r="I234" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J234"/>
+    </row>
+    <row r="235" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -17696,9 +19250,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H235"/>
-    </row>
-    <row r="236" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H235" t="s">
+        <v>1</v>
+      </c>
+      <c r="I235" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J235"/>
+    </row>
+    <row r="236" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -17722,9 +19283,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H236"/>
-    </row>
-    <row r="237" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H236" t="s">
+        <v>1</v>
+      </c>
+      <c r="I236" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J236"/>
+    </row>
+    <row r="237" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -17748,9 +19316,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H237"/>
-    </row>
-    <row r="238" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H237" t="s">
+        <v>2</v>
+      </c>
+      <c r="I237" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J237"/>
+    </row>
+    <row r="238" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -17774,9 +19349,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H238"/>
-    </row>
-    <row r="239" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H238" t="s">
+        <v>1</v>
+      </c>
+      <c r="I238" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J238"/>
+    </row>
+    <row r="239" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -17800,9 +19382,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H239"/>
-    </row>
-    <row r="240" spans="1:9" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H239" t="s">
+        <v>4</v>
+      </c>
+      <c r="I239" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J239"/>
+    </row>
+    <row r="240" spans="1:10" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>238</v>
       </c>
@@ -17826,10 +19415,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H240"/>
-      <c r="I240"/>
-    </row>
-    <row r="241" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H240" t="s">
+        <v>1</v>
+      </c>
+      <c r="I240" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J240"/>
+    </row>
+    <row r="241" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -17853,9 +19448,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H241"/>
-    </row>
-    <row r="242" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="H241" t="s">
+        <v>1</v>
+      </c>
+      <c r="I241" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J241"/>
+    </row>
+    <row r="242" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -17879,9 +19481,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H242"/>
-    </row>
-    <row r="243" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H242" t="s">
+        <v>1</v>
+      </c>
+      <c r="I242" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J242"/>
+    </row>
+    <row r="243" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -17905,9 +19514,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H243"/>
-    </row>
-    <row r="244" spans="1:9" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="H243" t="s">
+        <v>4</v>
+      </c>
+      <c r="I243" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J243"/>
+    </row>
+    <row r="244" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>242</v>
       </c>
@@ -17931,10 +19547,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H244"/>
-      <c r="I244"/>
-    </row>
-    <row r="245" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H244" t="s">
+        <v>4</v>
+      </c>
+      <c r="I244" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J244"/>
+    </row>
+    <row r="245" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -17958,9 +19580,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H245"/>
-    </row>
-    <row r="246" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H245" t="s">
+        <v>3</v>
+      </c>
+      <c r="I245" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J245"/>
+    </row>
+    <row r="246" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -17984,9 +19613,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H246"/>
-    </row>
-    <row r="247" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H246" t="s">
+        <v>4</v>
+      </c>
+      <c r="I246" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J246"/>
+    </row>
+    <row r="247" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -18010,9 +19646,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H247"/>
-    </row>
-    <row r="248" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H247" t="s">
+        <v>4</v>
+      </c>
+      <c r="I247" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J247"/>
+    </row>
+    <row r="248" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>246</v>
       </c>
@@ -18036,10 +19679,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H248"/>
-      <c r="I248"/>
-    </row>
-    <row r="249" spans="1:9" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H248" t="s">
+        <v>1</v>
+      </c>
+      <c r="I248" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J248"/>
+    </row>
+    <row r="249" spans="1:10" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>247</v>
       </c>
@@ -18063,10 +19712,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H249"/>
-      <c r="I249"/>
-    </row>
-    <row r="250" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H249" t="s">
+        <v>1</v>
+      </c>
+      <c r="I249" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J249"/>
+    </row>
+    <row r="250" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -18090,9 +19745,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H250"/>
-    </row>
-    <row r="251" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H250" t="s">
+        <v>1</v>
+      </c>
+      <c r="I250" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J250"/>
+    </row>
+    <row r="251" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -18116,9 +19778,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H251"/>
-    </row>
-    <row r="252" spans="1:9" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="H251" t="s">
+        <v>1</v>
+      </c>
+      <c r="I251" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J251"/>
+    </row>
+    <row r="252" spans="1:10" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>250</v>
       </c>
@@ -18142,10 +19811,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H252"/>
-      <c r="I252"/>
-    </row>
-    <row r="253" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H252" t="s">
+        <v>1</v>
+      </c>
+      <c r="I252" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J252"/>
+    </row>
+    <row r="253" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -18169,9 +19844,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H253"/>
-    </row>
-    <row r="254" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H253" t="s">
+        <v>1</v>
+      </c>
+      <c r="I253" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J253"/>
+    </row>
+    <row r="254" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -18195,9 +19877,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H254"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H254" t="s">
+        <v>1</v>
+      </c>
+      <c r="I254" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J254"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -18221,9 +19910,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H255"/>
-    </row>
-    <row r="256" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H255" t="s">
+        <v>4</v>
+      </c>
+      <c r="I255" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J255"/>
+    </row>
+    <row r="256" spans="1:10" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>254</v>
       </c>
@@ -18247,10 +19943,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H256"/>
-      <c r="I256"/>
-    </row>
-    <row r="257" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H256" t="s">
+        <v>4</v>
+      </c>
+      <c r="I256" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J256"/>
+    </row>
+    <row r="257" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -18274,9 +19976,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H257"/>
-    </row>
-    <row r="258" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H257" t="s">
+        <v>4</v>
+      </c>
+      <c r="I257" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J257"/>
+    </row>
+    <row r="258" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -18300,9 +20009,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H258"/>
-    </row>
-    <row r="259" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H258" t="s">
+        <v>1</v>
+      </c>
+      <c r="I258" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J258"/>
+    </row>
+    <row r="259" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -18326,9 +20042,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H259"/>
-    </row>
-    <row r="260" spans="1:9" ht="288" x14ac:dyDescent="0.3">
+      <c r="H259" t="s">
+        <v>3</v>
+      </c>
+      <c r="I259" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J259"/>
+    </row>
+    <row r="260" spans="1:10" ht="288" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -18352,9 +20075,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H260"/>
-    </row>
-    <row r="261" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H260" t="s">
+        <v>4</v>
+      </c>
+      <c r="I260" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J260"/>
+    </row>
+    <row r="261" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -18378,9 +20108,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H261"/>
-    </row>
-    <row r="262" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H261" t="s">
+        <v>4</v>
+      </c>
+      <c r="I261" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J261"/>
+    </row>
+    <row r="262" spans="1:10" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>260</v>
       </c>
@@ -18404,10 +20141,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H262"/>
-      <c r="I262"/>
-    </row>
-    <row r="263" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H262" t="s">
+        <v>3</v>
+      </c>
+      <c r="I262" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J262"/>
+    </row>
+    <row r="263" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -18431,9 +20174,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H263"/>
-    </row>
-    <row r="264" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H263" t="s">
+        <v>4</v>
+      </c>
+      <c r="I263" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J263"/>
+    </row>
+    <row r="264" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -18457,9 +20207,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H264"/>
-    </row>
-    <row r="265" spans="1:9" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H264" t="s">
+        <v>4</v>
+      </c>
+      <c r="I264" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J264"/>
+    </row>
+    <row r="265" spans="1:10" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>263</v>
       </c>
@@ -18483,10 +20240,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H265"/>
-      <c r="I265"/>
-    </row>
-    <row r="266" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H265" t="s">
+        <v>4</v>
+      </c>
+      <c r="I265" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J265"/>
+    </row>
+    <row r="266" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -18510,9 +20273,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H266"/>
-    </row>
-    <row r="267" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H266" t="s">
+        <v>2</v>
+      </c>
+      <c r="I266" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J266"/>
+    </row>
+    <row r="267" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -18536,9 +20306,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H267"/>
-    </row>
-    <row r="268" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H267" t="s">
+        <v>3</v>
+      </c>
+      <c r="I267" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>OUI</v>
+      </c>
+      <c r="J267"/>
+    </row>
+    <row r="268" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -18562,9 +20339,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H268"/>
-    </row>
-    <row r="269" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H268" t="s">
+        <v>4</v>
+      </c>
+      <c r="I268" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J268"/>
+    </row>
+    <row r="269" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -18588,9 +20372,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H269"/>
-    </row>
-    <row r="270" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H269" t="s">
+        <v>1</v>
+      </c>
+      <c r="I269" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J269"/>
+    </row>
+    <row r="270" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -18614,9 +20405,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H270"/>
-    </row>
-    <row r="271" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H270" t="s">
+        <v>1</v>
+      </c>
+      <c r="I270" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J270"/>
+    </row>
+    <row r="271" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -18640,9 +20438,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H271"/>
-    </row>
-    <row r="272" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H271" t="s">
+        <v>1</v>
+      </c>
+      <c r="I271" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J271"/>
+    </row>
+    <row r="272" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>270</v>
       </c>
@@ -18666,10 +20471,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H272"/>
-      <c r="I272"/>
-    </row>
-    <row r="273" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H272" t="s">
+        <v>1</v>
+      </c>
+      <c r="I272" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J272"/>
+    </row>
+    <row r="273" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -18693,9 +20504,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H273"/>
-    </row>
-    <row r="274" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H273" t="s">
+        <v>1</v>
+      </c>
+      <c r="I273" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J273"/>
+    </row>
+    <row r="274" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -18719,9 +20537,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H274"/>
-    </row>
-    <row r="275" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H274" t="s">
+        <v>1</v>
+      </c>
+      <c r="I274" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J274"/>
+    </row>
+    <row r="275" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -18745,9 +20570,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H275"/>
-    </row>
-    <row r="276" spans="1:9" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H275" t="s">
+        <v>1</v>
+      </c>
+      <c r="I275" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J275"/>
+    </row>
+    <row r="276" spans="1:10" s="6" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>274</v>
       </c>
@@ -18771,10 +20603,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H276"/>
-      <c r="I276"/>
-    </row>
-    <row r="277" spans="1:9" s="6" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="H276" t="s">
+        <v>1</v>
+      </c>
+      <c r="I276" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J276"/>
+    </row>
+    <row r="277" spans="1:10" s="6" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>275</v>
       </c>
@@ -18798,10 +20636,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H277"/>
-      <c r="I277"/>
-    </row>
-    <row r="278" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H277" t="s">
+        <v>1</v>
+      </c>
+      <c r="I277" s="4" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J277"/>
+    </row>
+    <row r="278" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -18825,9 +20669,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H278"/>
-    </row>
-    <row r="279" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H278" t="s">
+        <v>1</v>
+      </c>
+      <c r="I278" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J278"/>
+    </row>
+    <row r="279" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -18851,9 +20702,16 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>NON</v>
       </c>
-      <c r="H279"/>
-    </row>
-    <row r="280" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H279" t="s">
+        <v>1</v>
+      </c>
+      <c r="I279" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J279"/>
+    </row>
+    <row r="280" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -18877,18 +20735,30 @@
         <f>IF(test[[#This Row],[my_pred_81_231116_1722]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
         <v>OUI</v>
       </c>
-      <c r="H280"/>
+      <c r="H280" t="s">
+        <v>1</v>
+      </c>
+      <c r="I280" s="1" t="str">
+        <f>IF(test[[#This Row],[Toronto]]=test[[#This Row],[CLASS]], "OUI", "NON")</f>
+        <v>NON</v>
+      </c>
+      <c r="J280"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D280">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$D2&lt;&gt;$C2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F280">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F2&lt;&gt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D280">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$D2&lt;&gt;$C2</formula>
+  <conditionalFormatting sqref="H2:H280">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H2&lt;&gt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18900,10 +20770,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DF7B33-AA7E-480F-85DD-A52AEF7F6171}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18915,7 +20785,7 @@
       <c r="B2" t="s">
         <v>1128</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <f>COUNTIF(test!E:E, "OUI")/279</f>
         <v>0.65949820788530467</v>
       </c>
@@ -18924,8 +20794,17 @@
       <c r="B3" t="s">
         <v>1126</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <f>COUNTIF(test!G:G, "OUI")/279</f>
+        <v>0.63440860215053763</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C4" s="7">
+        <f>COUNTIF(test!I:I, "OUI")/279</f>
         <v>0.63440860215053763</v>
       </c>
     </row>
